--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dynacons Systems and Solutions Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -2816,7 +2816,7 @@
         <v>1.22</v>
       </c>
       <c r="X21">
-        <v>13.13473684210526</v>
+        <v>13.13</v>
       </c>
       <c r="Y21">
         <v>1.18</v>
